--- a/files/HARRIS COUNTY.xlsx
+++ b/files/HARRIS COUNTY.xlsx
@@ -8,19 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/valeriezennmagbanua/Projects/Personal/Tool/address-scrape-tool/files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CB5D18A-D581-B14B-A8D9-4422B250BE72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{808ED724-56E1-8C4C-954C-2B2EEA1B3E3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="880" windowWidth="36000" windowHeight="20920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="880" windowWidth="36000" windowHeight="20920" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="3" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="4" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="42">
   <si>
     <t>ZIP</t>
   </si>
@@ -407,8 +408,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{666BEA76-68DB-044E-B114-BCF94252CE47}">
   <dimension ref="A1:C31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A10" sqref="A10:C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -762,4 +763,52 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45AC784A-F7FA-D440-8DE5-25C8A52CDE58}">
+  <dimension ref="A1:C3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2">
+        <v>77450</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3">
+        <v>77073</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/files/HARRIS COUNTY.xlsx
+++ b/files/HARRIS COUNTY.xlsx
@@ -8,20 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/valeriezennmagbanua/Projects/Personal/Tool/address-scrape-tool/files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{808ED724-56E1-8C4C-954C-2B2EEA1B3E3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1858BBEC-4FEB-EB49-AC55-87BB0F0CA446}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="880" windowWidth="36000" windowHeight="20920" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="880" windowWidth="36000" windowHeight="20920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="3" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="4" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="42">
   <si>
     <t>ZIP</t>
   </si>
@@ -408,8 +407,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{666BEA76-68DB-044E-B114-BCF94252CE47}">
   <dimension ref="A1:C31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10:C10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J31" sqref="J31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -763,52 +762,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45AC784A-F7FA-D440-8DE5-25C8A52CDE58}">
-  <dimension ref="A1:C3"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:C3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A1" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2">
-        <v>77450</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3">
-        <v>77073</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/files/HARRIS COUNTY.xlsx
+++ b/files/HARRIS COUNTY.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/valeriezennmagbanua/Projects/Personal/Tool/address-scrape-tool/files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1858BBEC-4FEB-EB49-AC55-87BB0F0CA446}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39285D82-5C69-D340-94F1-C327BFC84B69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="880" windowWidth="36000" windowHeight="20920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -408,7 +408,7 @@
   <dimension ref="A1:C31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J31" sqref="J31"/>
+      <selection activeCell="M35" sqref="M35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>

--- a/files/HARRIS COUNTY.xlsx
+++ b/files/HARRIS COUNTY.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/valeriezennmagbanua/Projects/Personal/Tool/address-scrape-tool/files/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/valeriezennmagbanua/Projects/Personal/address-scrape-tool/files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39285D82-5C69-D340-94F1-C327BFC84B69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1BC0512-9119-8B4A-AA0B-6B3355259DC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="880" windowWidth="36000" windowHeight="20920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -408,7 +408,7 @@
   <dimension ref="A1:C31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M35" sqref="M35"/>
+      <selection activeCell="J37" sqref="J37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
